--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/03.BaoGiaBH/BG210525_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/03.BaoGiaBH/BG210525_GPSGlobal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Số điện thoại:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>VT_Module_M-9129</t>
+  </si>
+  <si>
+    <t>Thiết bị note đỏ báo giá không sửa</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -598,7 +607,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,8 +694,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -751,17 +769,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1120,7 +1144,7 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1148,94 +1172,94 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="11"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -1243,10 +1267,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="24"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1257,13 +1281,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="12"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1271,10 +1295,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="24"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1286,10 +1310,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="25"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -1399,119 +1423,119 @@
       <c r="AA14" s="14"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="61">
         <v>3</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="62">
         <v>866192037814439</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="61">
         <v>1</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="65">
         <v>385000</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="65">
         <v>385000</v>
       </c>
       <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="61">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="61">
         <v>1</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="65">
         <v>385000</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="65">
         <v>385000</v>
       </c>
       <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="61">
         <v>5</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="61">
         <v>1</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="65">
         <v>385000</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="65">
         <v>385000</v>
       </c>
       <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="28">
-        <f>SUM(J13:J17)</f>
-        <v>1230000</v>
+        <f>SUM(J13:J14)</f>
+        <v>75000</v>
       </c>
       <c r="AA18" s="14"/>
     </row>
@@ -1530,10 +1554,12 @@
     </row>
     <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
@@ -1542,31 +1568,31 @@
       <c r="AA20" s="14"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="23"/>
       <c r="AA21" s="14"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
       <c r="AA22" s="14"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -1593,20 +1619,20 @@
       <c r="AA26" s="14"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
       <c r="AA27" s="14"/>
     </row>
     <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1678,17 +1704,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A27:E27"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1696,6 +1711,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
